--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py36\api_v3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C76C638-BFEF-4A90-98C1-5594E52FAAE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BC078E-4481-479B-AD0B-F9A556CF82FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="48" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="104">
   <si>
     <t>case_id</t>
   </si>
@@ -340,10 +340,6 @@
   </si>
   <si>
     <t>{"$..code":0,"$..msg":"OK"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1067,7 +1063,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1376,8 +1372,8 @@
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>104</v>
+      <c r="I10" s="5">
+        <v>555</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
